--- a/Rabu/Statistika/Minggu 7 - Angka Indeks/2113191079 Isep Lutpi Nur.xlsx
+++ b/Rabu/Statistika/Minggu 7 - Angka Indeks/2113191079 Isep Lutpi Nur.xlsx
@@ -57,12 +57,6 @@
     <t>Angka indeks sederhana kuantitas rata rata relatif</t>
   </si>
   <si>
-    <t xml:space="preserve">Pt / P0 * 100% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qt / Q0 * 100% </t>
-  </si>
-  <si>
     <t>A. Indeks Harga Agregatif Tertimbang</t>
   </si>
   <si>
@@ -233,13 +227,100 @@
   </si>
   <si>
     <t>2. Indeks Drobisch</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +376,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,16 +492,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -421,17 +504,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,6 +531,26 @@
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -482,16 +574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171246</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148290</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373469</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>294474</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>163107</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>496697</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,8 +600,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3420952" y="1593849"/>
-          <a:ext cx="4964169" cy="3443817"/>
+          <a:off x="8517344" y="2980145"/>
+          <a:ext cx="5000028" cy="3415243"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -520,16 +612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>261737</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>147272</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25077</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>385985</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>81499</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>150791</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -546,8 +638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7142149" y="147272"/>
-          <a:ext cx="4965189" cy="3396845"/>
+          <a:off x="8778552" y="5521569"/>
+          <a:ext cx="5002514" cy="3378614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,16 +650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>395496</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16809</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290721</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>346788</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101794</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242013</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -584,8 +676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10301496" y="218515"/>
-          <a:ext cx="4792233" cy="3345897"/>
+          <a:off x="3557796" y="2369484"/>
+          <a:ext cx="4828092" cy="3323485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -601,14 +693,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192655</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>81353</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161950</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>73249</xdr:rowOff>
     </xdr:to>
@@ -627,8 +719,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6499412" y="134470"/>
-          <a:ext cx="3600000" cy="2796279"/>
+          <a:off x="8413463" y="134470"/>
+          <a:ext cx="3618102" cy="2796279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,16 +731,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42236</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>34912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>305470</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>62874</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5065</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>187433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -665,8 +757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3697941" y="3339353"/>
-          <a:ext cx="3600000" cy="3010021"/>
+          <a:off x="8263044" y="3273412"/>
+          <a:ext cx="3611636" cy="3010021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,16 +769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>652854</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>170445</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220566</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -703,8 +795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78442" y="3451411"/>
-          <a:ext cx="3600000" cy="2434034"/>
+          <a:off x="4232808" y="1531757"/>
+          <a:ext cx="3600431" cy="2434034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,295 +1071,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="3.28515625" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="21"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="15">
+      <c r="B3" s="18"/>
+      <c r="C3" s="8">
         <v>1993</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="8">
         <v>1994</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="8">
         <v>1995</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="8">
         <v>1993</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="8">
         <v>1994</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="8">
         <v>1995</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="K3" s="16" t="s">
         <v>15</v>
       </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="9">
         <v>300</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="9">
         <v>315</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="9">
         <v>330</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="9">
         <v>35</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="9">
         <v>25</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="10">
         <v>40</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="11">
         <f>C4*F4</f>
         <v>10500</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="11">
         <f>C4*H4</f>
         <v>12000</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="11">
         <f>E4*H4</f>
         <v>13200</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="11">
         <f>E4*F4</f>
         <v>11550</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="9">
         <v>100</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="9">
         <v>125</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="9">
         <v>150</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="9">
         <v>10</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="10">
         <v>50</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="11">
         <f t="shared" ref="I5:I6" si="0">C5*F5</f>
         <v>400</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="11">
         <f t="shared" ref="J5:J6" si="1">C5*H5</f>
         <v>5000</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="11">
         <f t="shared" ref="K5:K6" si="2">E5*H5</f>
         <v>7500</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="11">
         <f t="shared" ref="L5:L6" si="3">E5*F5</f>
         <v>600</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="9">
         <v>500</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="9">
         <v>600</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="9">
         <v>550</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="11">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="11">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="11">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I7" s="18">
+      <c r="I7" s="11">
         <f>SUM(I4:I6)</f>
         <v>11400</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="11">
         <f>SUM(J4:J6)</f>
         <v>18500</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="11">
         <f>SUM(K4:K6)</f>
         <v>22350</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="11">
         <f>SUM(L4:L6)</f>
         <v>12700</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>12</v>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13">
         <f>L7/I7*100%</f>
         <v>1.1140350877192982</v>
       </c>
+      <c r="G11" s="27">
+        <f>E11*E12</f>
+        <v>1.3458748221906116</v>
+      </c>
+      <c r="H11" s="26">
+        <f>SQRT(G11)</f>
+        <v>1.1601184517930105</v>
+      </c>
+      <c r="J11" s="7">
+        <f>111.4*120.81</f>
+        <v>13458.234</v>
+      </c>
+      <c r="K11" s="7">
+        <f>SQRT(J11)</f>
+        <v>116.00962891070724</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13">
         <f>K7/J7*100%</f>
         <v>1.2081081081081082</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>19</v>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13">
         <f>J7/I7*100%</f>
         <v>1.6228070175438596</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="13">
         <f>K7/L7*100%</f>
         <v>1.7598425196850394</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="E19" s="13">
         <f>SQRT(E11*E12)</f>
         <v>1.1601184517930105</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="13">
         <f>1/2*(E11+E12)</f>
         <v>1.1610715979137032</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>21</v>
+      <c r="B22" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="B23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="13">
         <f>SQRT(E15*E16)</f>
         <v>1.6899363274150152</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="13">
         <f>1/2*(E15+E16)</f>
         <v>1.6913247686144495</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="7">
+        <f>8.5/6</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E35" s="7">
+        <f>$D$35*F35</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="7">
+        <f t="shared" ref="E36:E40" si="4">$D$35*F36</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="7">
+        <f t="shared" si="4"/>
+        <v>4.25</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="7">
+        <f t="shared" si="4"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="7">
+        <f t="shared" si="4"/>
+        <v>7.0833333333333339</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="7">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1283,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,48 +1468,48 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="5">
+      <c r="B3" s="20"/>
+      <c r="C3" s="3">
         <v>1993</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>1994</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>1995</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>1993</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>1994</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>1995</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1362,12 +1533,12 @@
       <c r="H4" s="2">
         <v>40</v>
       </c>
-      <c r="I4" s="10">
-        <f>C4/E4*100%</f>
+      <c r="I4" s="23">
+        <f>C4/E4</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="J4" s="10">
-        <f>F4/H4*100%</f>
+      <c r="J4" s="23">
+        <f>F4/H4</f>
         <v>0.875</v>
       </c>
     </row>
@@ -1393,12 +1564,12 @@
       <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" s="10">
-        <f>C5/E5*100%</f>
+      <c r="I5" s="23">
+        <f t="shared" ref="I5:I6" si="0">C5/E5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J5" s="10">
-        <f>F5/H5*100%</f>
+      <c r="J5" s="23">
+        <f t="shared" ref="J5:J6" si="1">F5/H5</f>
         <v>0.08</v>
       </c>
     </row>
@@ -1424,12 +1595,12 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="10">
-        <f>C6/E6*100%</f>
+      <c r="I6" s="23">
+        <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="J6" s="10">
-        <f>F6/H6*100%</f>
+      <c r="J6" s="23">
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1439,73 +1610,95 @@
         <v>900</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:H7" si="0">SUM(E4:E6)</f>
+        <f t="shared" ref="E7:H7" si="2">SUM(E4:E6)</f>
         <v>1030</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="24">
         <f>SUM(I4:I6)</f>
         <v>2.4848484848484849</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="24">
         <f>SUM(J4:J6)</f>
         <v>1.2883333333333333</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <f>E7/C7*100%</f>
         <v>1.1444444444444444</v>
       </c>
+      <c r="C11">
+        <f>E7/C7</f>
+        <v>1.1444444444444444</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <f>H7/F7*100%</f>
         <v>2.3250000000000002</v>
       </c>
+      <c r="C13">
+        <f>H7/F7</f>
+        <v>2.3250000000000002</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <f>1/COUNT(C4:C6)*I7</f>
         <v>0.82828282828282829</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
         <f>1/COUNT(F4:F6)*J7</f>
         <v>0.42944444444444441</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>D20*J7</f>
+        <v>0.42944015000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Rabu/Statistika/Minggu 7 - Angka Indeks/2113191079 Isep Lutpi Nur.xlsx
+++ b/Rabu/Statistika/Minggu 7 - Angka Indeks/2113191079 Isep Lutpi Nur.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indeks Tertimbang" sheetId="2" r:id="rId1"/>
@@ -531,6 +531,11 @@
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -546,11 +551,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1084,26 +1084,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="6"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="8">
         <v>1993</v>
       </c>
@@ -1283,11 +1283,11 @@
         <f>L7/I7*100%</f>
         <v>1.1140350877192982</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="22">
         <f>E11*E12</f>
         <v>1.3458748221906116</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="21">
         <f>SQRT(G11)</f>
         <v>1.1601184517930105</v>
       </c>
@@ -1454,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J21"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,28 +1468,28 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3">
         <v>1993</v>
       </c>
@@ -1508,8 +1508,8 @@
       <c r="H3" s="3">
         <v>1995</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1533,13 +1533,13 @@
       <c r="H4" s="2">
         <v>40</v>
       </c>
-      <c r="I4" s="23">
-        <f>C4/E4</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="J4" s="23">
-        <f>F4/H4</f>
-        <v>0.875</v>
+      <c r="I4" s="18">
+        <f>E4/C4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J4" s="18">
+        <f>H4/F4</f>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1564,13 +1564,13 @@
       <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" s="23">
-        <f t="shared" ref="I5:I6" si="0">C5/E5</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J5" s="23">
-        <f t="shared" ref="J5:J6" si="1">F5/H5</f>
-        <v>0.08</v>
+      <c r="I5" s="18">
+        <f t="shared" ref="I5:I6" si="0">E5/C5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5:J6" si="1">H5/F5</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,13 +1595,13 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="18">
         <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="J6" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1621,13 +1621,13 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <f>SUM(I4:I6)</f>
-        <v>2.4848484848484849</v>
-      </c>
-      <c r="J7" s="24">
+        <v>3.7</v>
+      </c>
+      <c r="J7" s="19">
         <f>SUM(J4:J6)</f>
-        <v>1.2883333333333333</v>
+        <v>16.642857142857142</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1645,10 +1645,6 @@
         <f>E7/C7*100%</f>
         <v>1.1444444444444444</v>
       </c>
-      <c r="C11">
-        <f>E7/C7</f>
-        <v>1.1444444444444444</v>
-      </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1660,10 +1656,6 @@
         <f>H7/F7*100%</f>
         <v>2.3250000000000002</v>
       </c>
-      <c r="C13">
-        <f>H7/F7</f>
-        <v>2.3250000000000002</v>
-      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -1673,32 +1665,79 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f>1/COUNT(C4:C6)*I7</f>
-        <v>0.82828282828282829</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1.2333333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f>1/COUNT(F4:F6)*J7</f>
-        <v>0.42944444444444441</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>0.33333000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <f>D20*J7</f>
-        <v>0.42944015000000002</v>
+        <v>5.5476190476190474</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>11.5/6</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="D24">
+        <f>$C$24*E24</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>$C$24*E25</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" ref="D26:D29" si="3">$C$24*E26</f>
+        <v>5.75</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
